--- a/biology/Médecine/Antoine-Joseph_Mellez/Antoine-Joseph_Mellez.xlsx
+++ b/biology/Médecine/Antoine-Joseph_Mellez/Antoine-Joseph_Mellez.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antoine-Joseph Mellez, né le 14 mai 1729 à Douai et mort dans cette ville le 23 juillet 1804, est un médecin français, professeur à l'Université de Douai. Il fut maire de sa ville natale.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Antoine-Joseph Mellez est né dans une famille bourgeoise le 14 mai 1729 à Douai[1].
-À 20 ans, il est licencié en médecine. Disciple d'Herman Boerhaave[2] puis d'Albrecht von Haller, il obtient dès l'âge de vingt ans une chaire de professeur royal à l'université de médecine de Douai et en devient recteur. Il devient consultant à l'hôpital militaire puis médecin en chef de l'Hôpital-Général de Douai.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Antoine-Joseph Mellez est né dans une famille bourgeoise le 14 mai 1729 à Douai.
+À 20 ans, il est licencié en médecine. Disciple d'Herman Boerhaave puis d'Albrecht von Haller, il obtient dès l'âge de vingt ans une chaire de professeur royal à l'université de médecine de Douai et en devient recteur. Il devient consultant à l'hôpital militaire puis médecin en chef de l'Hôpital-Général de Douai.
 À la suite du décès de son épouse Claire-Angeline-Julie de Kystpotter, il sollicite une place de chanoine au chapitre de Saint-Amé.
 En 1790, il devient président de l'administration du district de Douai, puis président de l'administration centrale du département du Nord et maire de Douai de l'an VIII à 1804.
 Il meurt le 23 juillet 1804, ses restes étant transportés à Gœulzin. Son mausolée se trouve dans le transept gauche de la Collégiale Saint-Pierre de Douai.
